--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>711.3192212814549</v>
+        <v>763.3063909583383</v>
       </c>
       <c r="AB2" t="n">
-        <v>973.258339746557</v>
+        <v>1044.389478810527</v>
       </c>
       <c r="AC2" t="n">
-        <v>880.3719297778039</v>
+        <v>944.7144127626896</v>
       </c>
       <c r="AD2" t="n">
-        <v>711319.2212814549</v>
+        <v>763306.3909583383</v>
       </c>
       <c r="AE2" t="n">
-        <v>973258.3397465569</v>
+        <v>1044389.478810527</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.009120335604283e-06</v>
+        <v>3.396517612257611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.08472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>880371.9297778038</v>
+        <v>944714.4127626895</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.1541627856119</v>
+        <v>285.2270231987653</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.7449380134352</v>
+        <v>390.2601964687285</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.5566491926225</v>
+        <v>353.0143110513782</v>
       </c>
       <c r="AD3" t="n">
-        <v>254154.1627856119</v>
+        <v>285227.0231987653</v>
       </c>
       <c r="AE3" t="n">
-        <v>347744.9380134352</v>
+        <v>390260.1964687285</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.730118926885413e-06</v>
+        <v>6.305951120230529e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.431944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>314556.6491926225</v>
+        <v>353014.3110513782</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.3217833835574</v>
+        <v>226.4798951427278</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.2478810141866</v>
+        <v>309.8797841219388</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.7421183350277</v>
+        <v>280.3052924444412</v>
       </c>
       <c r="AD4" t="n">
-        <v>195321.7833835574</v>
+        <v>226479.8951427278</v>
       </c>
       <c r="AE4" t="n">
-        <v>267247.8810141867</v>
+        <v>309879.7841219388</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.339332296147937e-06</v>
+        <v>7.335856547821859e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.669444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>241742.1183350277</v>
+        <v>280305.2924444412</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.6630133005776</v>
+        <v>193.4067303637183</v>
       </c>
       <c r="AB5" t="n">
-        <v>236.2451521522839</v>
+        <v>264.6276209862678</v>
       </c>
       <c r="AC5" t="n">
-        <v>213.6982464030917</v>
+        <v>239.3719322466144</v>
       </c>
       <c r="AD5" t="n">
-        <v>172663.0133005776</v>
+        <v>193406.7303637184</v>
       </c>
       <c r="AE5" t="n">
-        <v>236245.1521522838</v>
+        <v>264627.6209862678</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.683619545060667e-06</v>
+        <v>7.917891224334201e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.326388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>213698.2464030917</v>
+        <v>239371.9322466144</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.580356684546</v>
+        <v>181.3240737476868</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.7131283210486</v>
+        <v>248.0955971550324</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.7440157234631</v>
+        <v>224.4177015669858</v>
       </c>
       <c r="AD6" t="n">
-        <v>160580.356684546</v>
+        <v>181324.0737476868</v>
       </c>
       <c r="AE6" t="n">
-        <v>219713.1283210486</v>
+        <v>248095.5971550324</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.848906601424277e-06</v>
+        <v>8.197317194032709e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.179166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>198744.0157234631</v>
+        <v>224417.7015669858</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>155.57505939668</v>
+        <v>176.3187764598208</v>
       </c>
       <c r="AB7" t="n">
-        <v>212.8646597536619</v>
+        <v>241.2471285876458</v>
       </c>
       <c r="AC7" t="n">
-        <v>192.5491553842596</v>
+        <v>218.2228412277823</v>
       </c>
       <c r="AD7" t="n">
-        <v>155575.0593966799</v>
+        <v>176318.7764598207</v>
       </c>
       <c r="AE7" t="n">
-        <v>212864.6597536619</v>
+        <v>241247.1285876458</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.92739242342218e-06</v>
+        <v>8.330001370288487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.112500000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>192549.1553842596</v>
+        <v>218222.8412277823</v>
       </c>
     </row>
   </sheetData>
@@ -3379,28 +3379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.5791257932402</v>
+        <v>470.9413971686807</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.1373557206852</v>
+        <v>644.3627960743033</v>
       </c>
       <c r="AC2" t="n">
-        <v>532.910913350174</v>
+        <v>582.8657151858354</v>
       </c>
       <c r="AD2" t="n">
-        <v>430579.1257932401</v>
+        <v>470941.3971686807</v>
       </c>
       <c r="AE2" t="n">
-        <v>589137.3557206851</v>
+        <v>644362.7960743033</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.649470748544577e-06</v>
+        <v>4.588329616919002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.911111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>532910.9133501741</v>
+        <v>582865.7151858354</v>
       </c>
     </row>
     <row r="3">
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.612696850572</v>
+        <v>225.7990595275804</v>
       </c>
       <c r="AB3" t="n">
-        <v>267.6459216539522</v>
+        <v>308.948234796947</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.1021705347876</v>
+        <v>279.4626488795887</v>
       </c>
       <c r="AD3" t="n">
-        <v>195612.696850572</v>
+        <v>225799.0595275804</v>
       </c>
       <c r="AE3" t="n">
-        <v>267645.9216539522</v>
+        <v>308948.234796947</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.227442162692567e-06</v>
+        <v>7.321046322005872e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.958333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>242102.1705347876</v>
+        <v>279462.6488795887</v>
       </c>
     </row>
     <row r="4">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.9002294468068</v>
+        <v>179.9961137885062</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.7825482292782</v>
+        <v>246.2786237534239</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.9022488895736</v>
+        <v>222.7741375566879</v>
       </c>
       <c r="AD4" t="n">
-        <v>159900.2294468068</v>
+        <v>179996.1137885062</v>
       </c>
       <c r="AE4" t="n">
-        <v>218782.5482292782</v>
+        <v>246278.6237534239</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.806806380262778e-06</v>
+        <v>8.324384064051441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.361111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>197902.2488895736</v>
+        <v>222774.1375566879</v>
       </c>
     </row>
     <row r="5">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>145.5839067612501</v>
+        <v>165.6797911029495</v>
       </c>
       <c r="AB5" t="n">
-        <v>199.194323939328</v>
+        <v>226.6903994634737</v>
       </c>
       <c r="AC5" t="n">
-        <v>180.1834972336046</v>
+        <v>205.0553859007189</v>
       </c>
       <c r="AD5" t="n">
-        <v>145583.9067612501</v>
+        <v>165679.7911029495</v>
       </c>
       <c r="AE5" t="n">
-        <v>199194.323939328</v>
+        <v>226690.3994634737</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.04887468059688e-06</v>
+        <v>8.743595769766758e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.151388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>180183.4972336045</v>
+        <v>205055.3859007189</v>
       </c>
     </row>
     <row r="6">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>145.8240663227035</v>
+        <v>165.919950664403</v>
       </c>
       <c r="AB6" t="n">
-        <v>199.5229208464005</v>
+        <v>227.0189963705462</v>
       </c>
       <c r="AC6" t="n">
-        <v>180.4807333130548</v>
+        <v>205.3526219801691</v>
       </c>
       <c r="AD6" t="n">
-        <v>145824.0663227036</v>
+        <v>165919.950664403</v>
       </c>
       <c r="AE6" t="n">
-        <v>199522.9208464005</v>
+        <v>227018.9963705462</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.054458550367679e-06</v>
+        <v>8.753265865222786e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.147222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>180480.7333130548</v>
+        <v>205352.6219801691</v>
       </c>
     </row>
   </sheetData>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.6553632428596</v>
+        <v>169.9161192264337</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.1873614992464</v>
+        <v>232.4867304956283</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.5589536649959</v>
+        <v>210.2985232343682</v>
       </c>
       <c r="AD2" t="n">
-        <v>142655.3632428595</v>
+        <v>169916.1192264337</v>
       </c>
       <c r="AE2" t="n">
-        <v>195187.3614992464</v>
+        <v>232486.7304956283</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.736070364965732e-06</v>
+        <v>8.96166428416875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.938888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>176558.9536649959</v>
+        <v>210298.5232343682</v>
       </c>
     </row>
     <row r="3">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.0597402843455</v>
+        <v>142.3758123643476</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.7440097864348</v>
+        <v>194.8048676543521</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.5438797296786</v>
+        <v>176.2129644958248</v>
       </c>
       <c r="AD3" t="n">
-        <v>124059.7402843455</v>
+        <v>142375.8123643476</v>
       </c>
       <c r="AE3" t="n">
-        <v>169744.0097864348</v>
+        <v>194804.8676543521</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.194622477176004e-06</v>
+        <v>9.82934355617101e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.502777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>153543.8797296786</v>
+        <v>176212.9644958248</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.466400896835</v>
+        <v>244.9562932337519</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.1788795305271</v>
+        <v>335.1600071112208</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.9119829578892</v>
+        <v>303.17280643265</v>
       </c>
       <c r="AD2" t="n">
-        <v>216466.400896835</v>
+        <v>244956.293233752</v>
       </c>
       <c r="AE2" t="n">
-        <v>296178.879530527</v>
+        <v>335160.0071112208</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.866461298288412e-06</v>
+        <v>7.043852787599367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.787500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>267911.9829578892</v>
+        <v>303172.80643265</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.1106854857692</v>
+        <v>151.0186956976933</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.759668193652</v>
+        <v>206.6304419281319</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.5082191590882</v>
+        <v>186.9099225582165</v>
       </c>
       <c r="AD3" t="n">
-        <v>132110.6854857692</v>
+        <v>151018.6956976933</v>
       </c>
       <c r="AE3" t="n">
-        <v>180759.668193652</v>
+        <v>206630.4419281319</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.158181577024933e-06</v>
+        <v>9.397086606389855e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.3375</v>
       </c>
       <c r="AH3" t="n">
-        <v>163508.2191590882</v>
+        <v>186909.9225582165</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.6647839935341</v>
+        <v>149.5727942054582</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.7813219833051</v>
+        <v>204.652095717785</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.7186835344298</v>
+        <v>185.1203869335582</v>
       </c>
       <c r="AD4" t="n">
-        <v>130664.7839935341</v>
+        <v>149572.7942054582</v>
       </c>
       <c r="AE4" t="n">
-        <v>178781.3219833051</v>
+        <v>204652.0957177849</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.206351240699443e-06</v>
+        <v>9.484841272368699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.297222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>161718.6835344298</v>
+        <v>185120.3869335582</v>
       </c>
     </row>
   </sheetData>
@@ -5012,28 +5012,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.3751328683232</v>
+        <v>146.6977419149532</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.702567366429</v>
+        <v>200.7183223355627</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.9835854985276</v>
+        <v>181.5620473618484</v>
       </c>
       <c r="AD2" t="n">
-        <v>120375.1328683232</v>
+        <v>146697.7419149532</v>
       </c>
       <c r="AE2" t="n">
-        <v>164702.567366429</v>
+        <v>200718.3223355627</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.062223245556823e-06</v>
+        <v>9.920326510594208e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.798611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>148983.5854985277</v>
+        <v>181562.0473618484</v>
       </c>
     </row>
     <row r="3">
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.4281073046217</v>
+        <v>146.7507163512516</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.7750493272396</v>
+        <v>200.7908042963734</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.0491498827276</v>
+        <v>181.6276117460483</v>
       </c>
       <c r="AD3" t="n">
-        <v>120428.1073046217</v>
+        <v>146750.7163512516</v>
       </c>
       <c r="AE3" t="n">
-        <v>164775.0493272396</v>
+        <v>200790.8042963734</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.084959875667464e-06</v>
+        <v>9.964882979858211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.776388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>149049.1498827276</v>
+        <v>181627.6117460483</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>489.4866813330582</v>
+        <v>530.1042559471018</v>
       </c>
       <c r="AB2" t="n">
-        <v>669.737272028199</v>
+        <v>725.3120295360582</v>
       </c>
       <c r="AC2" t="n">
-        <v>605.8184867679919</v>
+        <v>656.0892674189631</v>
       </c>
       <c r="AD2" t="n">
-        <v>489486.6813330582</v>
+        <v>530104.2559471019</v>
       </c>
       <c r="AE2" t="n">
-        <v>669737.2720281989</v>
+        <v>725312.0295360582</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.480747357748263e-06</v>
+        <v>4.268079209038499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.37361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>605818.4867679919</v>
+        <v>656089.2674189631</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.3508984721988</v>
+        <v>237.7024009607817</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.3890881344183</v>
+        <v>325.2349116842066</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.0066909511638</v>
+        <v>294.194948183228</v>
       </c>
       <c r="AD3" t="n">
-        <v>217350.8984721988</v>
+        <v>237702.4009607817</v>
       </c>
       <c r="AE3" t="n">
-        <v>297389.0881344184</v>
+        <v>325234.9116842066</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.095244718747388e-06</v>
+        <v>7.045791577855681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.072222222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>269006.6909511638</v>
+        <v>294194.948183228</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.050010340613</v>
+        <v>189.3161719746243</v>
       </c>
       <c r="AB4" t="n">
-        <v>231.3016821080216</v>
+        <v>259.0307385356123</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.2265742016485</v>
+        <v>234.3092084017739</v>
       </c>
       <c r="AD4" t="n">
-        <v>169050.010340613</v>
+        <v>189316.1719746243</v>
       </c>
       <c r="AE4" t="n">
-        <v>231301.6821080216</v>
+        <v>259030.7385356123</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.677480774918726e-06</v>
+        <v>8.047517770704711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.440277777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>209226.5742016485</v>
+        <v>234309.2084017739</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.8669072144202</v>
+        <v>169.1330688484315</v>
       </c>
       <c r="AB5" t="n">
-        <v>203.686269995111</v>
+        <v>231.4153264227017</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.246738262311</v>
+        <v>209.3293724624363</v>
       </c>
       <c r="AD5" t="n">
-        <v>148866.9072144202</v>
+        <v>169133.0688484315</v>
       </c>
       <c r="AE5" t="n">
-        <v>203686.269995111</v>
+        <v>231415.3264227017</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.01264414555319e-06</v>
+        <v>8.624160051253049e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.144444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>184246.738262311</v>
+        <v>209329.3724624364</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>145.5714007717965</v>
+        <v>165.8375624058078</v>
       </c>
       <c r="AB6" t="n">
-        <v>199.1772126928322</v>
+        <v>226.9062691204228</v>
       </c>
       <c r="AC6" t="n">
-        <v>180.1680190604585</v>
+        <v>205.2506532605839</v>
       </c>
       <c r="AD6" t="n">
-        <v>145571.4007717965</v>
+        <v>165837.5624058078</v>
       </c>
       <c r="AE6" t="n">
-        <v>199177.2126928322</v>
+        <v>226906.2691204229</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.081292064839767e-06</v>
+        <v>8.742267506305117e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.0875</v>
       </c>
       <c r="AH6" t="n">
-        <v>180168.0190604585</v>
+        <v>205250.6532605839</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.3897996097898</v>
+        <v>144.6248400841831</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.3003438673543</v>
+        <v>197.88208660073</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.6653636807717</v>
+        <v>178.9964979848653</v>
       </c>
       <c r="AD2" t="n">
-        <v>127389.7996097898</v>
+        <v>144624.8400841831</v>
       </c>
       <c r="AE2" t="n">
-        <v>174300.3438673543</v>
+        <v>197882.08660073</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.941819094894796e-06</v>
+        <v>9.906668927891172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.030555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>157665.3636807717</v>
+        <v>178996.4979848653</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.2601406003515</v>
+        <v>346.4318067230397</v>
       </c>
       <c r="AB2" t="n">
-        <v>420.4068797301159</v>
+        <v>474.0032814511217</v>
       </c>
       <c r="AC2" t="n">
-        <v>380.2838371734344</v>
+        <v>428.7650735372098</v>
       </c>
       <c r="AD2" t="n">
-        <v>307260.1406003515</v>
+        <v>346431.8067230397</v>
       </c>
       <c r="AE2" t="n">
-        <v>420406.8797301159</v>
+        <v>474003.2814511217</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.205885102320786e-06</v>
+        <v>5.67786073559341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.736111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>380283.8371734344</v>
+        <v>428765.0735372098</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.5810008609427</v>
+        <v>191.9384152393155</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.4504979453849</v>
+        <v>262.6186074555692</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.220134632776</v>
+        <v>237.5546561476169</v>
       </c>
       <c r="AD3" t="n">
-        <v>162581.0008609426</v>
+        <v>191938.4152393155</v>
       </c>
       <c r="AE3" t="n">
-        <v>222450.4979453849</v>
+        <v>262618.6074555692</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.670286396998115e-06</v>
+        <v>8.271424243587335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.623611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>201220.134632776</v>
+        <v>237554.6561476169</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.3496863213622</v>
+        <v>157.8929384639713</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.2961443821971</v>
+        <v>216.0360841511358</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.2299860412208</v>
+        <v>195.4179034883617</v>
       </c>
       <c r="AD4" t="n">
-        <v>138349.6863213622</v>
+        <v>157892.9384639713</v>
       </c>
       <c r="AE4" t="n">
-        <v>189296.1443821971</v>
+        <v>216036.0841511358</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.126959427627475e-06</v>
+        <v>9.080226114789093e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.212499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>171229.9860412208</v>
+        <v>195417.9034883617</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.0817984206294</v>
+        <v>157.6250505632385</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.9296083380346</v>
+        <v>215.6695481069733</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.8984316826765</v>
+        <v>195.0863491298174</v>
       </c>
       <c r="AD5" t="n">
-        <v>138081.7984206294</v>
+        <v>157625.0505632385</v>
       </c>
       <c r="AE5" t="n">
-        <v>188929.6083380346</v>
+        <v>215669.5481069733</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.142819369447086e-06</v>
+        <v>9.10831525025473e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.198611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>170898.4316826765</v>
+        <v>195086.3491298174</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>388.1770669247055</v>
+        <v>428.0152414994159</v>
       </c>
       <c r="AB2" t="n">
-        <v>531.1209881299424</v>
+        <v>585.6293361192827</v>
       </c>
       <c r="AC2" t="n">
-        <v>480.4315464558085</v>
+        <v>529.7376942159932</v>
       </c>
       <c r="AD2" t="n">
-        <v>388177.0669247055</v>
+        <v>428015.2414994159</v>
       </c>
       <c r="AE2" t="n">
-        <v>531120.9881299423</v>
+        <v>585629.3361192826</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.825157168661455e-06</v>
+        <v>4.926827411669424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.48888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>480431.5464558085</v>
+        <v>529737.6942159932</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.6159537359113</v>
+        <v>214.5371879628162</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.5996925824144</v>
+        <v>293.5392452833361</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.4919324483174</v>
+        <v>265.5242716984993</v>
       </c>
       <c r="AD3" t="n">
-        <v>184615.9537359113</v>
+        <v>214537.1879628162</v>
       </c>
       <c r="AE3" t="n">
-        <v>252599.6925824144</v>
+        <v>293539.2452833361</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.364185302711176e-06</v>
+        <v>7.610758090739988e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.848611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>228491.9324483174</v>
+        <v>265524.2716984993</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.9389567088466</v>
+        <v>171.8580887504771</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.8895836426417</v>
+        <v>235.143818872072</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.0488935547104</v>
+        <v>212.7020228254119</v>
       </c>
       <c r="AD4" t="n">
-        <v>151938.9567088466</v>
+        <v>171858.0887504771</v>
       </c>
       <c r="AE4" t="n">
-        <v>207889.5836426417</v>
+        <v>235143.818872072</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.924067345141657e-06</v>
+        <v>8.587143484284268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.297222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>188048.8935547104</v>
+        <v>212702.0228254119</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.2408712167052</v>
+        <v>163.1600032583357</v>
       </c>
       <c r="AB5" t="n">
-        <v>195.9884793398503</v>
+        <v>223.2427145692807</v>
       </c>
       <c r="AC5" t="n">
-        <v>177.2836139432689</v>
+        <v>201.9367432139705</v>
       </c>
       <c r="AD5" t="n">
-        <v>143240.8712167052</v>
+        <v>163160.0032583357</v>
       </c>
       <c r="AE5" t="n">
-        <v>195988.4793398503</v>
+        <v>223242.7145692807</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.072912176557871e-06</v>
+        <v>8.846715873261891e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.170833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>177283.6139432689</v>
+        <v>201936.7432139704</v>
       </c>
     </row>
   </sheetData>
@@ -7663,28 +7663,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>622.4713476978801</v>
+        <v>673.9878821165347</v>
       </c>
       <c r="AB2" t="n">
-        <v>851.6927594179656</v>
+        <v>922.1799545586648</v>
       </c>
       <c r="AC2" t="n">
-        <v>770.4083978174098</v>
+        <v>834.1683939832803</v>
       </c>
       <c r="AD2" t="n">
-        <v>622471.3476978801</v>
+        <v>673987.8821165347</v>
       </c>
       <c r="AE2" t="n">
-        <v>851692.7594179655</v>
+        <v>922179.9545586648</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.161056100390982e-06</v>
+        <v>3.67365214369203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.451388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>770408.3978174097</v>
+        <v>834168.3939832803</v>
       </c>
     </row>
     <row r="3">
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.88955673129</v>
+        <v>271.7312405022488</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.5957188168028</v>
+        <v>371.7946711914428</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.1395660035218</v>
+        <v>336.3111095900291</v>
       </c>
       <c r="AD3" t="n">
-        <v>240889.55673129</v>
+        <v>271731.2405022488</v>
       </c>
       <c r="AE3" t="n">
-        <v>329595.7188168028</v>
+        <v>371794.6711914428</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.851697226288854e-06</v>
+        <v>6.547630008146798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.302777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>298139.5660035218</v>
+        <v>336311.1095900291</v>
       </c>
     </row>
     <row r="4">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.0365096820468</v>
+        <v>207.7967011843168</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.911604015307</v>
+        <v>284.3166139037085</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.4877597023527</v>
+        <v>257.181835313696</v>
       </c>
       <c r="AD4" t="n">
-        <v>187036.5096820468</v>
+        <v>207796.7011843168</v>
       </c>
       <c r="AE4" t="n">
-        <v>255911.604015307</v>
+        <v>284316.6139037085</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.437399896937825e-06</v>
+        <v>7.543285729998006e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.602777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>231487.7597023527</v>
+        <v>257181.835313696</v>
       </c>
     </row>
     <row r="5">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.2690901392641</v>
+        <v>185.8586894409419</v>
       </c>
       <c r="AB5" t="n">
-        <v>226.1284602861118</v>
+        <v>254.3000583996664</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.5470774097576</v>
+        <v>230.0300177384499</v>
       </c>
       <c r="AD5" t="n">
-        <v>165269.0901392641</v>
+        <v>185858.6894409419</v>
       </c>
       <c r="AE5" t="n">
-        <v>226128.4602861118</v>
+        <v>254300.0583996664</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.780910175279778e-06</v>
+        <v>8.127230436562009e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.272222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>204547.0774097576</v>
+        <v>230030.0177384499</v>
       </c>
     </row>
     <row r="6">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.320032101173</v>
+        <v>174.9096314028509</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.1474760400536</v>
+        <v>239.3190741536082</v>
       </c>
       <c r="AC6" t="n">
-        <v>190.995857274195</v>
+        <v>216.4787976028873</v>
       </c>
       <c r="AD6" t="n">
-        <v>154320.032101173</v>
+        <v>174909.6314028508</v>
       </c>
       <c r="AE6" t="n">
-        <v>211147.4760400536</v>
+        <v>239319.0741536082</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.932960529648605e-06</v>
+        <v>8.385705961642136e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.140277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>190995.857274195</v>
+        <v>216478.7976028873</v>
       </c>
     </row>
     <row r="7">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>153.5596180850722</v>
+        <v>174.1492173867501</v>
       </c>
       <c r="AB7" t="n">
-        <v>210.1070440361262</v>
+        <v>238.2786421496808</v>
       </c>
       <c r="AC7" t="n">
-        <v>190.0547226404667</v>
+        <v>215.5376629691589</v>
       </c>
       <c r="AD7" t="n">
-        <v>153559.6180850722</v>
+        <v>174149.21738675</v>
       </c>
       <c r="AE7" t="n">
-        <v>210107.0440361262</v>
+        <v>238278.6421496808</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.949430200528014e-06</v>
+        <v>8.413703310586987e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.126388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>190054.7226404666</v>
+        <v>215537.6629691589</v>
       </c>
     </row>
   </sheetData>
@@ -8490,28 +8490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.6570702925439</v>
+        <v>279.3962580299884</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.9600617835898</v>
+        <v>382.2822863296034</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.2284348345361</v>
+        <v>345.797801458864</v>
       </c>
       <c r="AD2" t="n">
-        <v>250657.0702925439</v>
+        <v>279396.2580299884</v>
       </c>
       <c r="AE2" t="n">
-        <v>342960.0617835898</v>
+        <v>382282.2863296035</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.630985502077095e-06</v>
+        <v>6.547526096445314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.084722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>310228.434834536</v>
+        <v>345797.801458864</v>
       </c>
     </row>
     <row r="3">
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.2050970931906</v>
+        <v>159.3361384694777</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.8347992551576</v>
+        <v>218.0107340681594</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.5263552561313</v>
+        <v>197.2040955887438</v>
       </c>
       <c r="AD3" t="n">
-        <v>140205.0970931906</v>
+        <v>159336.1384694777</v>
       </c>
       <c r="AE3" t="n">
-        <v>191834.7992551576</v>
+        <v>218010.7340681594</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.033012983228753e-06</v>
+        <v>9.07571342066423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.390277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>173526.3552561313</v>
+        <v>197204.0955887438</v>
       </c>
     </row>
     <row r="4">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.9772467142844</v>
+        <v>152.1082880905716</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.9453354964892</v>
+        <v>208.121270309491</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.5807280386375</v>
+        <v>188.25846837125</v>
       </c>
       <c r="AD4" t="n">
-        <v>132977.2467142844</v>
+        <v>152108.2880905716</v>
       </c>
       <c r="AE4" t="n">
-        <v>181945.3354964892</v>
+        <v>208121.270309491</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.188599375667913e-06</v>
+        <v>9.356272504186993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.258333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>164580.7280386375</v>
+        <v>188258.46837125</v>
       </c>
     </row>
   </sheetData>
@@ -8999,28 +8999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.4000430456532</v>
+        <v>190.9035735531565</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.8853446480677</v>
+        <v>261.2026914065741</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.3727784220848</v>
+        <v>236.2738731390868</v>
       </c>
       <c r="AD2" t="n">
-        <v>172400.0430456532</v>
+        <v>190903.5735531565</v>
       </c>
       <c r="AE2" t="n">
-        <v>235885.3446480677</v>
+        <v>261202.6914065741</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.410509514828152e-06</v>
+        <v>8.228600967332523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.218055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>213372.7784220848</v>
+        <v>236273.8731390868</v>
       </c>
     </row>
     <row r="3">
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.2471201788992</v>
+        <v>144.6653098318309</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.736879458552</v>
+        <v>197.9374590948609</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.2511141208089</v>
+        <v>179.0465858058721</v>
       </c>
       <c r="AD3" t="n">
-        <v>126247.1201788992</v>
+        <v>144665.3098318309</v>
       </c>
       <c r="AE3" t="n">
-        <v>172736.8794585521</v>
+        <v>197937.4590948609</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.204782372411144e-06</v>
+        <v>9.710460236031555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.422222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>156251.1141208089</v>
+        <v>179046.5858058721</v>
       </c>
     </row>
     <row r="4">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.463727696533</v>
+        <v>144.8819173494647</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.0332514202276</v>
+        <v>198.2338310565365</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.519200758423</v>
+        <v>179.3146724434861</v>
       </c>
       <c r="AD4" t="n">
-        <v>126463.727696533</v>
+        <v>144881.9173494647</v>
       </c>
       <c r="AE4" t="n">
-        <v>173033.2514202276</v>
+        <v>198233.8310565365</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.217708156448588e-06</v>
+        <v>9.734575617412429e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.411111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>156519.200758423</v>
+        <v>179314.6724434861</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.8490530232351</v>
+        <v>152.6641801081412</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.1922264146892</v>
+        <v>208.8818662921544</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.7584419990268</v>
+        <v>188.9464741408314</v>
       </c>
       <c r="AD2" t="n">
-        <v>125849.0530232351</v>
+        <v>152664.1801081412</v>
       </c>
       <c r="AE2" t="n">
-        <v>172192.2264146892</v>
+        <v>208881.8662921544</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.037315514575885e-06</v>
+        <v>9.686944536362115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.726388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>155758.4419990268</v>
+        <v>188946.4741408314</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.2328942976463</v>
+        <v>140.2518804452031</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.2444385126774</v>
+        <v>191.8988103013169</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.2828640301175</v>
+        <v>173.5842571778853</v>
       </c>
       <c r="AD3" t="n">
-        <v>122232.8942976463</v>
+        <v>140251.8804452031</v>
       </c>
       <c r="AE3" t="n">
-        <v>167244.4385126774</v>
+        <v>191898.8103013169</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.154912875236054e-06</v>
+        <v>9.913088621846015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.619444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>151282.8640301175</v>
+        <v>173584.2571778853</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.3852260037415</v>
+        <v>152.4208340534569</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.2940860577858</v>
+        <v>208.5489094844652</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.6597031077655</v>
+        <v>188.6452942635601</v>
       </c>
       <c r="AD2" t="n">
-        <v>127385.2260037415</v>
+        <v>152420.8340534569</v>
       </c>
       <c r="AE2" t="n">
-        <v>174294.0860577858</v>
+        <v>208548.9094844652</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.668588198569822e-06</v>
+        <v>9.629426850092223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.473611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>157659.7031077655</v>
+        <v>188645.2942635601</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.4017485160074</v>
+        <v>380.1325159351207</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.4351309537312</v>
+        <v>520.1140785654504</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.6785149469388</v>
+        <v>470.475120891857</v>
       </c>
       <c r="AD2" t="n">
-        <v>350401.7485160074</v>
+        <v>380132.5159351207</v>
       </c>
       <c r="AE2" t="n">
-        <v>479435.1309537312</v>
+        <v>520114.0785654504</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.01184619054607e-06</v>
+        <v>5.291694946156396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.095833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>433678.5149469388</v>
+        <v>470475.120891857</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.0073432152402</v>
+        <v>202.6526802712304</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.7162795322888</v>
+        <v>277.278337552241</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.1244100471805</v>
+        <v>250.8152821789274</v>
       </c>
       <c r="AD3" t="n">
-        <v>173007.3432152403</v>
+        <v>202652.6802712304</v>
       </c>
       <c r="AE3" t="n">
-        <v>236716.2795322888</v>
+        <v>277278.337552241</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.521154419986471e-06</v>
+        <v>7.943489966430641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.726388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>214124.4100471805</v>
+        <v>250815.2821789274</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.093709267644</v>
+        <v>162.8289098619979</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.7871258688179</v>
+        <v>222.7896979776018</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.1014773649104</v>
+        <v>201.5269618899886</v>
       </c>
       <c r="AD4" t="n">
-        <v>143093.709267644</v>
+        <v>162828.9098619979</v>
       </c>
       <c r="AE4" t="n">
-        <v>195787.1258688179</v>
+        <v>222789.6979776018</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.059236882862715e-06</v>
+        <v>8.888879627547883e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.223611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>177101.4773649104</v>
+        <v>201526.9618899886</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>140.3622688016949</v>
+        <v>160.0974693960489</v>
       </c>
       <c r="AB5" t="n">
-        <v>192.0498485206596</v>
+        <v>219.0524206294435</v>
       </c>
       <c r="AC5" t="n">
-        <v>173.7208805215573</v>
+        <v>198.1463650466355</v>
       </c>
       <c r="AD5" t="n">
-        <v>140362.2688016949</v>
+        <v>160097.4693960489</v>
       </c>
       <c r="AE5" t="n">
-        <v>192049.8485206596</v>
+        <v>219052.4206294435</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.114168378214965e-06</v>
+        <v>8.985392097956479e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.179166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>173720.8805215574</v>
+        <v>198146.3650466355</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>545.1439215670093</v>
+        <v>596.3481145745155</v>
       </c>
       <c r="AB2" t="n">
-        <v>745.8899635404349</v>
+        <v>815.9497993828704</v>
       </c>
       <c r="AC2" t="n">
-        <v>674.703272283274</v>
+        <v>738.0766957225045</v>
       </c>
       <c r="AD2" t="n">
-        <v>545143.9215670093</v>
+        <v>596348.1145745155</v>
       </c>
       <c r="AE2" t="n">
-        <v>745889.963540435</v>
+        <v>815949.7993828704</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.320187998717431e-06</v>
+        <v>3.967262910498169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.876388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>674703.272283274</v>
+        <v>738076.6957225045</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.4217493647284</v>
+        <v>249.9376524181103</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.9049588539265</v>
+        <v>341.9757225093136</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.9463101493776</v>
+        <v>309.3380395190677</v>
       </c>
       <c r="AD3" t="n">
-        <v>229421.7493647284</v>
+        <v>249937.6524181103</v>
       </c>
       <c r="AE3" t="n">
-        <v>313904.9588539265</v>
+        <v>341975.7225093136</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.966619973267428e-06</v>
+        <v>6.782478104655355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.191666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>283946.3101493776</v>
+        <v>309338.0395190677</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.5455971408059</v>
+        <v>198.1467515402084</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.9257187668775</v>
+        <v>271.1131270749138</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.7412291162247</v>
+        <v>245.2384707366271</v>
       </c>
       <c r="AD4" t="n">
-        <v>177545.5971408059</v>
+        <v>198146.7515402084</v>
       </c>
       <c r="AE4" t="n">
-        <v>242925.7187668775</v>
+        <v>271113.1270749138</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.561939171557976e-06</v>
+        <v>7.800407589934636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.513888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>219741.2291162247</v>
+        <v>245238.4707366271</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.5397106726867</v>
+        <v>176.9702728714969</v>
       </c>
       <c r="AB5" t="n">
-        <v>214.1845381869044</v>
+        <v>242.1385347200939</v>
       </c>
       <c r="AC5" t="n">
-        <v>193.7430664722949</v>
+        <v>219.0291728100462</v>
       </c>
       <c r="AD5" t="n">
-        <v>156539.7106726867</v>
+        <v>176970.2728714969</v>
       </c>
       <c r="AE5" t="n">
-        <v>214184.5381869044</v>
+        <v>242138.5347200939</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.901634385327252e-06</v>
+        <v>8.381248549031728e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.201388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>193743.0664722949</v>
+        <v>219029.1728100462</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>150.6691901010535</v>
+        <v>171.0997522998637</v>
       </c>
       <c r="AB6" t="n">
-        <v>206.1522329517107</v>
+        <v>234.1062294849003</v>
       </c>
       <c r="AC6" t="n">
-        <v>186.4773531753344</v>
+        <v>211.7634595130857</v>
       </c>
       <c r="AD6" t="n">
-        <v>150669.1901010535</v>
+        <v>171099.7522998637</v>
       </c>
       <c r="AE6" t="n">
-        <v>206152.2329517108</v>
+        <v>234106.2294849003</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.985557340802333e-06</v>
+        <v>8.524747450318919e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.130555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>186477.3531753344</v>
+        <v>211763.4595130857</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>151.2026392872507</v>
+        <v>171.633201486061</v>
       </c>
       <c r="AB7" t="n">
-        <v>206.8821216623826</v>
+        <v>234.8361181955721</v>
       </c>
       <c r="AC7" t="n">
-        <v>187.1375823318652</v>
+        <v>212.4236886696165</v>
       </c>
       <c r="AD7" t="n">
-        <v>151202.6392872507</v>
+        <v>171633.2014860609</v>
       </c>
       <c r="AE7" t="n">
-        <v>206882.1216623826</v>
+        <v>234836.1181955721</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.985557340802333e-06</v>
+        <v>8.524747450318919e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.130555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>187137.5823318652</v>
+        <v>212423.6886696165</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.3620248709513</v>
+        <v>162.6905589251722</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.3130265300833</v>
+        <v>222.6004001222244</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.2452569806071</v>
+        <v>201.3557303562471</v>
       </c>
       <c r="AD2" t="n">
-        <v>138362.0248709513</v>
+        <v>162690.5589251722</v>
       </c>
       <c r="AE2" t="n">
-        <v>189313.0265300833</v>
+        <v>222600.4001222244</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.12768322313341e-06</v>
+        <v>8.847526318695231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.411111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>171245.2569806071</v>
+        <v>201355.730356247</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.8873569458569</v>
+        <v>222.0220888710947</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.2852354796977</v>
+        <v>303.7804169165606</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.9667849357593</v>
+        <v>274.7880402846268</v>
       </c>
       <c r="AD2" t="n">
-        <v>193887.3569458569</v>
+        <v>222022.0888710947</v>
       </c>
       <c r="AE2" t="n">
-        <v>265285.2354796977</v>
+        <v>303780.4169165606</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.122665353705384e-06</v>
+        <v>7.59573277901295e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.501388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>239966.7849357593</v>
+        <v>274788.0402846268</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.4979225686859</v>
+        <v>147.1691591728238</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.8165265866498</v>
+        <v>201.3633362252426</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.0368440493139</v>
+        <v>182.14550203118</v>
       </c>
       <c r="AD3" t="n">
-        <v>128497.9225686858</v>
+        <v>147169.1591728238</v>
       </c>
       <c r="AE3" t="n">
-        <v>175816.5265866499</v>
+        <v>201363.3362252426</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.203056464380929e-06</v>
+        <v>9.58628051195875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.359722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>159036.8440493139</v>
+        <v>182145.50203118</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.55414753969</v>
+        <v>147.225384143828</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.8934560724484</v>
+        <v>201.4402657110411</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.1064314929591</v>
+        <v>182.2150894748252</v>
       </c>
       <c r="AD4" t="n">
-        <v>128554.14753969</v>
+        <v>147225.384143828</v>
       </c>
       <c r="AE4" t="n">
-        <v>175893.4560724484</v>
+        <v>201440.2657110411</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.217263542166415e-06</v>
+        <v>9.612456094299481e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.347222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>159106.4314929591</v>
+        <v>182215.0894748252</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.764308909412</v>
+        <v>306.8203502860986</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.0493815463169</v>
+        <v>419.8051392199757</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.7780019741928</v>
+        <v>379.7395259330339</v>
       </c>
       <c r="AD2" t="n">
-        <v>277764.308909412</v>
+        <v>306820.3502860985</v>
       </c>
       <c r="AE2" t="n">
-        <v>380049.3815463169</v>
+        <v>419805.1392199757</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.409844870651878e-06</v>
+        <v>6.091439016803893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.404166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>343778.0019741928</v>
+        <v>379739.5259330339</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.5259984253095</v>
+        <v>171.0388677616856</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.3245559006728</v>
+        <v>234.0229245737287</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.5377912674134</v>
+        <v>211.6881051057172</v>
       </c>
       <c r="AD3" t="n">
-        <v>151525.9984253095</v>
+        <v>171038.8677616856</v>
       </c>
       <c r="AE3" t="n">
-        <v>207324.5559006728</v>
+        <v>234022.9245737287</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.842457673186915e-06</v>
+        <v>8.650697238913681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.509722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>187537.7912674134</v>
+        <v>211688.1051057172</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>135.768805704132</v>
+        <v>155.1110828399159</v>
       </c>
       <c r="AB4" t="n">
-        <v>185.7648696612875</v>
+        <v>212.2298265594966</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.0357312234985</v>
+        <v>191.9749097791513</v>
       </c>
       <c r="AD4" t="n">
-        <v>135768.805704132</v>
+        <v>155111.0828399159</v>
       </c>
       <c r="AE4" t="n">
-        <v>185764.8696612875</v>
+        <v>212229.8265594966</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.156116863381977e-06</v>
+        <v>9.211026491888771e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.234722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>168035.7312234985</v>
+        <v>191974.9097791513</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.3237046048153</v>
+        <v>155.6659817405992</v>
       </c>
       <c r="AB5" t="n">
-        <v>186.5241068176138</v>
+        <v>212.9890637158229</v>
       </c>
       <c r="AC5" t="n">
-        <v>168.7225078512213</v>
+        <v>192.661686406874</v>
       </c>
       <c r="AD5" t="n">
-        <v>136323.7046048153</v>
+        <v>155665.9817405992</v>
       </c>
       <c r="AE5" t="n">
-        <v>186524.1068176138</v>
+        <v>212989.0637158229</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.156116863381977e-06</v>
+        <v>9.211026491888771e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.234722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>168722.5078512213</v>
+        <v>192661.686406874</v>
       </c>
     </row>
   </sheetData>
